--- a/XLSX/VVK_EIR_s1_NSIK_15_ŠG.xlsx
+++ b/XLSX/VVK_EIR_s1_NSIK_15_ŠG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="148">
   <si>
     <t xml:space="preserve">Komponento pavadinimas pagal NSIK klasifikatorių</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Pastabos</t>
   </si>
   <si>
-    <t xml:space="preserve">LOD Pateikiama informacija</t>
+    <t xml:space="preserve">Pateikiama informacija</t>
   </si>
   <si>
     <t xml:space="preserve">PROJEKTO DALIS</t>
@@ -210,14 +210,14 @@
     <t xml:space="preserve">Skysčio srautą sukuriantis komponentas, mechaniškai suteikiantis skysčiui greitį.</t>
   </si>
   <si>
-    <t xml:space="preserve">turbinos sparnuotė, 
+    <t xml:space="preserve">cirkuliacinis siurblys, 
+Rotacinis siurblys, 
+Cirkuliacinis siurblys, 
+Ašinis siurblys, 
+turbinos sparnuotė, 
+vakuuminis siurblys, 
 radialinis siurblys, 
-Ašinis siurblys, 
-išcentrinis siurblys, 
-cirkuliacinis siurblys, 
-vakuuminis siurblys, 
-Rotacinis siurblys, 
-Cirkuliacinis siurblys</t>
+išcentrinis siurblys</t>
   </si>
   <si>
     <t xml:space="preserve">IfcFlowController, 
@@ -344,9 +344,9 @@
     <t xml:space="preserve">Talpa, pripildyta skysčiu, kuriam suteikta šiluminė energija vėliau gali būti perduodama kitiems objektams.</t>
   </si>
   <si>
-    <t xml:space="preserve">Akumuliacinė talpa, 
-akumuliacinė šiluminė talpa, 
-Šilumos akumuliavimo skysčiuose talpykla</t>
+    <t xml:space="preserve">Šilumos akumuliavimo skysčiuose talpykla, 
+Akumuliacinė talpa, 
+akumuliacinė šiluminė talpa</t>
   </si>
   <si>
     <t xml:space="preserve">%CPA2010</t>
@@ -537,13 +537,13 @@
     <t xml:space="preserve">Vieno sensoriaus absoliučiojo slėgio jutimo komponentas su skaliariniu išėjimu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Slėgio indikatorius, 
+    <t xml:space="preserve">slėgio jutiklis, 
 Absoliučiojo slėgio daviklis, 
-manometras, 
-slėgio jutiklis, 
+slėgio matavimo įrenginys, 
 slėgio keitiklis, 
+Slėgio indikatorius, 
 absoliučiojo slėgio jutiklis, 
-slėgio matavimo įrenginys</t>
+manometras</t>
   </si>
   <si>
     <t xml:space="preserve">BPP</t>
@@ -1084,15 +1084,15 @@
   </sheetPr>
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S4" activeCellId="0" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10"/>
@@ -1151,9 +1151,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1170,16 +1168,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1216,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1266,7 +1258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="5" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1290,7 +1282,7 @@
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="6" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1314,7 +1306,7 @@
       </c>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="7" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1338,7 +1330,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1362,7 +1354,7 @@
       </c>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1377,7 +1369,7 @@
       <c r="L9" s="5"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1419,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1443,7 +1435,7 @@
       </c>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="12" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1467,7 +1459,7 @@
       </c>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="13" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1491,7 +1483,7 @@
       </c>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1515,7 +1507,7 @@
       </c>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1530,7 +1522,7 @@
       <c r="L15" s="5"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1572,7 +1564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1596,7 +1588,7 @@
       </c>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1620,7 +1612,7 @@
       </c>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="19" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1644,7 +1636,7 @@
       </c>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1668,7 +1660,7 @@
       </c>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1683,7 +1675,7 @@
       <c r="L21" s="5"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
@@ -1725,7 +1717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="23" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1749,7 +1741,7 @@
       </c>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="24" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1773,7 +1765,7 @@
       </c>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="25" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1797,7 +1789,7 @@
       </c>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1821,7 +1813,7 @@
       </c>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1836,7 +1828,7 @@
       <c r="L27" s="5"/>
       <c r="T27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -1878,7 +1870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1902,7 +1894,7 @@
       </c>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="30" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1926,7 +1918,7 @@
       </c>
       <c r="T30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="31" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1950,7 +1942,7 @@
       </c>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1974,7 +1966,7 @@
       </c>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1989,7 +1981,7 @@
       <c r="L33" s="5"/>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -2031,7 +2023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="35" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2055,7 +2047,7 @@
       </c>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="36" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2079,7 +2071,7 @@
       </c>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="37" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2103,7 +2095,7 @@
       </c>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2127,7 +2119,7 @@
       </c>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2142,7 +2134,7 @@
       <c r="L39" s="5"/>
       <c r="T39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
@@ -2184,7 +2176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="41" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2208,7 +2200,7 @@
       </c>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="42" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2232,7 +2224,7 @@
       </c>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="43" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2256,7 +2248,7 @@
       </c>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="44" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2280,7 +2272,7 @@
       </c>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2295,7 +2287,7 @@
       <c r="L45" s="5"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A46" s="12"/>
       <c r="B46" s="5" t="s">
         <v>23</v>
@@ -2331,7 +2323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="47" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="12"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2355,7 +2347,7 @@
       </c>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="48" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="12"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2379,7 +2371,7 @@
       </c>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="49" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="12"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2403,7 +2395,7 @@
       </c>
       <c r="T49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="12"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2427,7 +2419,7 @@
       </c>
       <c r="T50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="12"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2442,7 +2434,7 @@
       <c r="L51" s="5"/>
       <c r="T51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>73</v>
       </c>
@@ -2484,7 +2476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="53" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2508,7 +2500,7 @@
       </c>
       <c r="T53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="54" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2532,7 +2524,7 @@
       </c>
       <c r="T54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="55" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2556,7 +2548,7 @@
       </c>
       <c r="T55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="56" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2580,7 +2572,7 @@
       </c>
       <c r="T56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2595,7 +2587,7 @@
       <c r="L57" s="5"/>
       <c r="T57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>78</v>
       </c>
@@ -2637,7 +2629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="59" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2661,7 +2653,7 @@
       </c>
       <c r="T59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="60" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2685,7 +2677,7 @@
       </c>
       <c r="T60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="61" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2709,7 +2701,7 @@
       </c>
       <c r="T61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="62" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2733,7 +2725,7 @@
       </c>
       <c r="T62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2748,7 +2740,7 @@
       <c r="L63" s="5"/>
       <c r="T63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>83</v>
       </c>
@@ -2790,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="65" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2814,7 +2806,7 @@
       </c>
       <c r="T65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="66" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2838,7 +2830,7 @@
       </c>
       <c r="T66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="67" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2862,7 +2854,7 @@
       </c>
       <c r="T67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="68" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2886,7 +2878,7 @@
       </c>
       <c r="T68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2901,7 +2893,7 @@
       <c r="L69" s="5"/>
       <c r="T69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A70" s="12"/>
       <c r="B70" s="5" t="s">
         <v>23</v>
@@ -2937,7 +2929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="71" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="12"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2961,7 +2953,7 @@
       </c>
       <c r="T71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="72" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="12"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2985,7 +2977,7 @@
       </c>
       <c r="T72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="12"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3009,7 +3001,7 @@
       </c>
       <c r="T73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="74" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="12"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3033,7 +3025,7 @@
       </c>
       <c r="T74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="12"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3057,7 +3049,7 @@
       </c>
       <c r="T75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="12"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3081,7 +3073,7 @@
       </c>
       <c r="T76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="12"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3105,7 +3097,7 @@
       </c>
       <c r="T77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="12"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3129,7 +3121,7 @@
       </c>
       <c r="T78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="12"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3153,7 +3145,7 @@
       </c>
       <c r="T79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="12"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3177,7 +3169,7 @@
       </c>
       <c r="T80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="81" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="12"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3201,7 +3193,7 @@
       </c>
       <c r="T81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="12"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3216,7 +3208,7 @@
       <c r="L82" s="5"/>
       <c r="T82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>105</v>
       </c>
@@ -3258,7 +3250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="84" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3282,7 +3274,7 @@
       </c>
       <c r="T84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="85" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3306,7 +3298,7 @@
       </c>
       <c r="T85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="86" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3330,7 +3322,7 @@
       </c>
       <c r="T86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3354,7 +3346,7 @@
       </c>
       <c r="T87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3378,7 +3370,7 @@
       </c>
       <c r="T88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3402,7 +3394,7 @@
       </c>
       <c r="T89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="90" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3426,7 +3418,7 @@
       </c>
       <c r="T90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="91" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3450,7 +3442,7 @@
       </c>
       <c r="T91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="92" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3474,7 +3466,7 @@
       </c>
       <c r="T92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3489,7 +3481,7 @@
       <c r="L93" s="5"/>
       <c r="T93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>111</v>
       </c>
@@ -3531,7 +3523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="95" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3555,7 +3547,7 @@
       </c>
       <c r="T95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="96" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3579,7 +3571,7 @@
       </c>
       <c r="T96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="97" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3603,7 +3595,7 @@
       </c>
       <c r="T97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3627,7 +3619,7 @@
       </c>
       <c r="T98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3651,7 +3643,7 @@
       </c>
       <c r="T99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3675,7 +3667,7 @@
       </c>
       <c r="T100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3699,7 +3691,7 @@
       </c>
       <c r="T101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="102" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3723,7 +3715,7 @@
       </c>
       <c r="T102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="103" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3747,7 +3739,7 @@
       </c>
       <c r="T103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3762,7 +3754,7 @@
       <c r="L104" s="5"/>
       <c r="T104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>115</v>
       </c>
@@ -3802,7 +3794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="106" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3826,7 +3818,7 @@
       </c>
       <c r="T106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="107" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3850,7 +3842,7 @@
       </c>
       <c r="T107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="108" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3874,7 +3866,7 @@
       </c>
       <c r="T108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3898,7 +3890,7 @@
       </c>
       <c r="T109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3922,7 +3914,7 @@
       </c>
       <c r="T110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3946,7 +3938,7 @@
       </c>
       <c r="T111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3970,7 +3962,7 @@
       </c>
       <c r="T112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="113" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3994,7 +3986,7 @@
       </c>
       <c r="T113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4018,7 +4010,7 @@
       </c>
       <c r="T114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4033,7 +4025,7 @@
       <c r="L115" s="5"/>
       <c r="T115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A116" s="12"/>
       <c r="B116" s="5" t="s">
         <v>23</v>
@@ -4069,7 +4061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="117" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="12"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4093,7 +4085,7 @@
       </c>
       <c r="T117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="118" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="12"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4117,7 +4109,7 @@
       </c>
       <c r="T118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="119" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="12"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4141,7 +4133,7 @@
       </c>
       <c r="T119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A120" s="12"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4165,7 +4157,7 @@
       </c>
       <c r="T120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="12"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4189,7 +4181,7 @@
       </c>
       <c r="T121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A122" s="12"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4213,7 +4205,7 @@
       </c>
       <c r="T122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A123" s="12"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4237,7 +4229,7 @@
       </c>
       <c r="T123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="124" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A124" s="12"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4261,7 +4253,7 @@
       </c>
       <c r="T124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="12"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4285,7 +4277,7 @@
       </c>
       <c r="T125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="12"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4300,7 +4292,7 @@
       <c r="L126" s="5"/>
       <c r="T126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>121</v>
       </c>
@@ -4342,7 +4334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="128" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4366,7 +4358,7 @@
       </c>
       <c r="T128" s="9"/>
     </row>
-    <row r="129" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="129" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4390,7 +4382,7 @@
       </c>
       <c r="T129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="130" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4414,7 +4406,7 @@
       </c>
       <c r="T130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4438,7 +4430,7 @@
       </c>
       <c r="T131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4462,7 +4454,7 @@
       </c>
       <c r="T132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4486,7 +4478,7 @@
       </c>
       <c r="T133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="134" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4510,7 +4502,7 @@
       </c>
       <c r="T134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="135" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4534,7 +4526,7 @@
       </c>
       <c r="T135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="136" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4558,7 +4550,7 @@
       </c>
       <c r="T136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4573,7 +4565,7 @@
       <c r="L137" s="5"/>
       <c r="T137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>127</v>
       </c>
@@ -4615,7 +4607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="139" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4639,7 +4631,7 @@
       </c>
       <c r="T139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="140" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4663,7 +4655,7 @@
       </c>
       <c r="T140" s="9"/>
     </row>
-    <row r="141" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="141" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4687,7 +4679,7 @@
       </c>
       <c r="T141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4711,7 +4703,7 @@
       </c>
       <c r="T142" s="9"/>
     </row>
-    <row r="143" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4735,7 +4727,7 @@
       </c>
       <c r="T143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4759,7 +4751,7 @@
       </c>
       <c r="T144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="145" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4783,7 +4775,7 @@
       </c>
       <c r="T145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="146" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4807,7 +4799,7 @@
       </c>
       <c r="T146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="147" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4831,7 +4823,7 @@
       </c>
       <c r="T147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4846,7 +4838,7 @@
       <c r="L148" s="5"/>
       <c r="T148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>131</v>
       </c>
@@ -4888,7 +4880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="150" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4912,7 +4904,7 @@
       </c>
       <c r="T150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="151" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4936,7 +4928,7 @@
       </c>
       <c r="T151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="152" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4960,7 +4952,7 @@
       </c>
       <c r="T152" s="9"/>
     </row>
-    <row r="153" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4984,7 +4976,7 @@
       </c>
       <c r="T153" s="9"/>
     </row>
-    <row r="154" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5008,7 +5000,7 @@
       </c>
       <c r="T154" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5032,7 +5024,7 @@
       </c>
       <c r="T155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="156" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5056,7 +5048,7 @@
       </c>
       <c r="T156" s="9"/>
     </row>
-    <row r="157" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="157" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5080,7 +5072,7 @@
       </c>
       <c r="T157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="158" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5104,7 +5096,7 @@
       </c>
       <c r="T158" s="9"/>
     </row>
-    <row r="159" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5119,7 +5111,7 @@
       <c r="L159" s="5"/>
       <c r="T159" s="9"/>
     </row>
-    <row r="160" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>135</v>
       </c>
@@ -5161,7 +5153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="161" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5185,7 +5177,7 @@
       </c>
       <c r="T161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="162" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5209,7 +5201,7 @@
       </c>
       <c r="T162" s="9"/>
     </row>
-    <row r="163" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="163" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5233,7 +5225,7 @@
       </c>
       <c r="T163" s="9"/>
     </row>
-    <row r="164" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5257,7 +5249,7 @@
       </c>
       <c r="T164" s="9"/>
     </row>
-    <row r="165" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5281,7 +5273,7 @@
       </c>
       <c r="T165" s="9"/>
     </row>
-    <row r="166" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5305,7 +5297,7 @@
       </c>
       <c r="T166" s="9"/>
     </row>
-    <row r="167" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="167" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5329,7 +5321,7 @@
       </c>
       <c r="T167" s="9"/>
     </row>
-    <row r="168" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="168" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5353,7 +5345,7 @@
       </c>
       <c r="T168" s="9"/>
     </row>
-    <row r="169" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="169" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5377,7 +5369,7 @@
       </c>
       <c r="T169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5392,7 +5384,7 @@
       <c r="L170" s="5"/>
       <c r="T170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>140</v>
       </c>
@@ -5434,7 +5426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="172" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5458,7 +5450,7 @@
       </c>
       <c r="T172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="173" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5482,7 +5474,7 @@
       </c>
       <c r="T173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="174" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5506,7 +5498,7 @@
       </c>
       <c r="T174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5530,7 +5522,7 @@
       </c>
       <c r="T175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5554,7 +5546,7 @@
       </c>
       <c r="T176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5578,7 +5570,7 @@
       </c>
       <c r="T177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="178" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5602,7 +5594,7 @@
       </c>
       <c r="T178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="179" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5626,7 +5618,7 @@
       </c>
       <c r="T179" s="9"/>
     </row>
-    <row r="180" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="180" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5650,7 +5642,7 @@
       </c>
       <c r="T180" s="9"/>
     </row>
-    <row r="181" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5665,7 +5657,7 @@
       <c r="L181" s="5"/>
       <c r="T181" s="9"/>
     </row>
-    <row r="182" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A182" s="12"/>
       <c r="B182" s="5" t="s">
         <v>23</v>
@@ -5703,7 +5695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="47.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="183" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A183" s="12"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5727,7 +5719,7 @@
       </c>
       <c r="T183" s="9"/>
     </row>
-    <row r="184" customFormat="false" ht="57.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="184" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A184" s="12"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5751,7 +5743,7 @@
       </c>
       <c r="T184" s="9"/>
     </row>
-    <row r="185" customFormat="false" ht="67.3" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="185" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A185" s="12"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5775,7 +5767,7 @@
       </c>
       <c r="T185" s="9"/>
     </row>
-    <row r="186" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A186" s="12"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5799,7 +5791,7 @@
       </c>
       <c r="T186" s="9"/>
     </row>
-    <row r="187" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A187" s="12"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5823,7 +5815,7 @@
       </c>
       <c r="T187" s="9"/>
     </row>
-    <row r="188" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A188" s="12"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5847,7 +5839,7 @@
       </c>
       <c r="T188" s="9"/>
     </row>
-    <row r="189" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A189" s="12"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5871,7 +5863,7 @@
       </c>
       <c r="T189" s="9"/>
     </row>
-    <row r="190" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="190" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A190" s="12"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5895,7 +5887,7 @@
       </c>
       <c r="T190" s="9"/>
     </row>
-    <row r="191" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A191" s="12"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5919,7 +5911,7 @@
       </c>
       <c r="T191" s="9"/>
     </row>
-    <row r="192" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A192" s="12"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5934,7 +5926,7 @@
       <c r="L192" s="5"/>
       <c r="T192" s="9"/>
     </row>
-    <row r="193" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -6715,14 +6707,36 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Dokumentas xmlns="68a813e2-ff10-41a8-84be-cc9e1093ee90">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Dokumentas>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="68a813e2-ff10-41a8-84be-cc9e1093ee90">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c51dfe2-a643-4496-b898-9dd06cb11735" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="1c51dfe2-a643-4496-b898-9dd06cb11735">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4931D80A-D59E-414A-AF88-8363CCB03195}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D0BCEA3-E6E9-4DB5-BA53-3A4C50C9A7A9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AAEFE0C-5F88-46CE-97F7-123556B19B7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0E5A9D-7D90-413E-89F4-0AE27C359E02}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F646822E-E5C6-469F-AF20-432A8EE31245}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02264D34-AAE7-4D2A-997A-4D1A22748F4B}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C8D70A-A19D-41CC-84F1-0E55BD2DF2E3}"/>
 </file>